--- a/Docs/[DR Fall'14]_Project_Planner.xlsx
+++ b/Docs/[DR Fall'14]_Project_Planner.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DR Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Weekly-Milestone" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Phase 1 Architecture" sheetId="3" r:id="rId2"/>
+    <sheet name="Weekly-Milestone" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>[DR Fall'14]: Development of web-based GUI for LinkLayer Matlab Simulator &amp; Sensor Test Bed</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Apache Server Setup</t>
   </si>
   <si>
-    <t>Requirement Gathering/Ramp up</t>
-  </si>
-  <si>
-    <t>Java/JSP tutorials and Interworking</t>
-  </si>
-  <si>
     <t xml:space="preserve">Architecture Design </t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Top Level Milestone</t>
   </si>
   <si>
-    <t>Delivery Status</t>
-  </si>
-  <si>
     <t>Phase 2 - Design + Programming</t>
   </si>
   <si>
@@ -166,13 +157,100 @@
   </si>
   <si>
     <t>Project issues/updates/Architecture redesign</t>
+  </si>
+  <si>
+    <t>Project Kickoff Discussion with Prof. Bhaskar</t>
+  </si>
+  <si>
+    <t>Phase 1 Project Requirement Gathering</t>
+  </si>
+  <si>
+    <t>Key technologies ramp up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1 Architecture </t>
+  </si>
+  <si>
+    <t>Implementation &amp; Issues Found</t>
+  </si>
+  <si>
+    <t>Understanding the Matlab Simulator &amp; Environment</t>
+  </si>
+  <si>
+    <t>Front end to be developed in HTML/CSS, Java Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restful webservice </t>
+  </si>
+  <si>
+    <t>Backend  to be developed in Java</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Java/JSP/Java servelet,script tutorials and Interworking</t>
+  </si>
+  <si>
+    <t>In Progess</t>
+  </si>
+  <si>
+    <t>Test Data Set Generation</t>
+  </si>
+  <si>
+    <t>Matlab Interface Redesign</t>
+  </si>
+  <si>
+    <t>Git Hub repository creation</t>
+  </si>
+  <si>
+    <t>Concurrent Matlab Instance Handler</t>
+  </si>
+  <si>
+    <t>Data Extraction from Matlab to Java</t>
+  </si>
+  <si>
+    <t>Requirement Gathering/Ramp up/Issues/Setups</t>
+  </si>
+  <si>
+    <t>Octave Interface as an alternative option exploration</t>
+  </si>
+  <si>
+    <t>Adding the restful webservice structure to Java servlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matlab Test Data set visualization </t>
+  </si>
+  <si>
+    <t>Bootstraps to provide a graphical visualization</t>
+  </si>
+  <si>
+    <t>Understanding Matlab Plot nodes code</t>
+  </si>
+  <si>
+    <t>Input/Output Interface to Java Servlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data handling between Server and Client </t>
+  </si>
+  <si>
+    <t>Manual Node placement option in Web Gui</t>
+  </si>
+  <si>
+    <t>Ways to implement data visualization from Matlab</t>
+  </si>
+  <si>
+    <t>https://github.com/venk3389/EE590_DR_FALL2014</t>
+  </si>
+  <si>
+    <t>Git Hub Repo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +266,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,10 +339,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,8 +354,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -256,6 +374,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="381000"/>
+          <a:ext cx="10058400" cy="7543800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,26 +712,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D39"/>
+  <dimension ref="A2:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -572,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -580,184 +747,162 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
@@ -766,195 +911,446 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C52" s="8">
+        <v>3</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+    <row r="53" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35">
+      <c r="C53" s="8">
         <v>3</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D53" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="54" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>32</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>34</v>
       </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>41990</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>41994</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>41987</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>41980</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>41973</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>41966</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>41959</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>41952</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>41945</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>41938</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>41931</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>41924</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>41917</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>41910</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>41903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>41899</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>